--- a/doc/外部設計/04_画面遷移図_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_画面遷移図_メガネのやばいシステム屋さん.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/aibataeplusdojo2023_seplus2016_onmicrosoft_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2FE54A-4A9F-490E-8C89-49259577D60C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08136EA-C562-4208-8B0B-9BBB790FCC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,9 +87,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>饗場</t>
+    <t>饗場多恵</t>
     <rPh sb="0" eb="2">
       <t>アエバ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -226,17 +229,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>69849</xdr:rowOff>
+      <xdr:rowOff>85893</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7015755-DAB7-4CF9-83B0-76FE73DF7EB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDF7FB0-64B2-4231-844B-281FF8E72837}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,7 +262,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1257300"/>
-          <a:ext cx="8242300" cy="6673849"/>
+          <a:ext cx="7772400" cy="6689893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -272,21 +275,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>147503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B905B8FE-4D7B-4768-9DF4-F920C3B9B1C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9984921A-8AAD-447A-908A-62527545E103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -308,8 +311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8521700"/>
-          <a:ext cx="8242300" cy="4184650"/>
+          <a:off x="0" y="8191500"/>
+          <a:ext cx="7772400" cy="4109903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,7 +995,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
